--- a/lab7.xlsx
+++ b/lab7.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Pycharm\Lab3_07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14EAF9E-85B9-45E0-93F8-BEDC6B5B873B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20249081-70F6-4BD7-BF89-2C9AA68FDD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="4140" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab7" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -364,7 +373,7 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,6 +405,10 @@
       <c r="D2">
         <v>0.21</v>
       </c>
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>40498.095238095244</v>
+      </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
